--- a/LangMod/EN/LangGame.xlsx
+++ b/LangMod/EN/LangGame.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -101,10 +101,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Pets cannot enter this Nefia! They're waiting outside for now.</t>
+  </si>
+  <si>
     <t xml:space="preserve">byakko_mod_nefia_party_restricting_joust</t>
   </si>
   <si>
     <t xml:space="preserve">騎乗・寄生していない仲間はこのネフィアに入れない！一旦待機してもらった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pets who aren’t mounted or parasited cannot enter this Nefia! They're waiting outside for now.</t>
   </si>
 </sst>
 </file>
@@ -536,9 +542,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="7.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16327" min="16314" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16349" min="16328" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16350" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16314" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,12 +663,12 @@
         <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -675,10 +679,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
